--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value919.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value919.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.485428124602501</v>
+        <v>1.032364726066589</v>
       </c>
       <c r="B1">
-        <v>1.767864716973464</v>
+        <v>2.00324273109436</v>
       </c>
       <c r="C1">
-        <v>2.334044375188232</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.793906211853027</v>
       </c>
       <c r="E1">
-        <v>0.7097972635513935</v>
+        <v>1.160421252250671</v>
       </c>
     </row>
   </sheetData>
